--- a/exportorv2/example/Sample.xlsx
+++ b/exportorv2/example/Sample.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luffyyzhang/WorkSpace/tabtoy/exportorv2/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="-34580" yWindow="7020" windowWidth="30660" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +263,7 @@
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -338,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,16 +932,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,23 +1431,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="43.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="43.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -1665,7 +1668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1708,16 +1711,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1752,7 +1755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
